--- a/Project 2/Documents/OctaveDocuments/SmootherOutput/output2SaltedSmoothenedGraph.xlsx
+++ b/Project 2/Documents/OctaveDocuments/SmootherOutput/output2SaltedSmoothenedGraph.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rance\OneDrive\Documents\My Files\Other\College Class Materials\ThirdYearSpring\Probability and Applied Statistics\Projects\Project 2\Documents\OctaveDocuments\SmootherOutput\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rance\OneDrive\Documents\My Files\Other\College Class Materials\ThirdYearSpring\Probability and Applied Statistics\Projects\Project 2\Octave\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47446ECA-432C-4321-869E-A50733D6D351}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{15508D0E-114B-4E94-AC24-B1AA99E2A4AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{6D1B79F7-F4D9-4C9C-879E-4CBFD33FAEBA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{74E07D41-2267-40C3-9FF3-B4A729D63327}"/>
   </bookViews>
   <sheets>
     <sheet name="output2SaltedSmoothened" sheetId="1" r:id="rId1"/>
@@ -593,13 +593,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Smoothened Output</a:t>
+              <a:t>Smoothened Output (Window Value: 5)</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> (Window Value: 5)</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -979,304 +974,304 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>-99.3333333333333</c:v>
+                  <c:v>-50.3333333333333</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>56.952380952380899</c:v>
+                  <c:v>56.25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>162.82738095238099</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>197.38293650793599</c:v>
+                  <c:v>2.4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>216.58293650793601</c:v>
+                  <c:v>68.2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>204.03748196248199</c:v>
+                  <c:v>98.8</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>304.61664698937398</c:v>
+                  <c:v>152</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>363.22248935637299</c:v>
+                  <c:v>173.8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>447.80386284764501</c:v>
+                  <c:v>264.60000000000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>525.56940160580098</c:v>
+                  <c:v>430.4</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>569.11362570560698</c:v>
+                  <c:v>509.4</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>645.57509331861797</c:v>
+                  <c:v>571.20000000000005</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>754.11677025764004</c:v>
+                  <c:v>791.8</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>840.83443215775503</c:v>
+                  <c:v>1020.2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>940.38266573140197</c:v>
+                  <c:v>1043.4000000000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1067.0020533791801</c:v>
+                  <c:v>1152.2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1265.9010013494999</c:v>
+                  <c:v>1265</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1472.0215384432199</c:v>
+                  <c:v>1397.6</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1568.7401537328201</c:v>
+                  <c:v>1379.4</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1727.5497647851</c:v>
+                  <c:v>1502.2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1902.11041015362</c:v>
+                  <c:v>1545.2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2124.7566244058398</c:v>
+                  <c:v>1727.4</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2249.83440832005</c:v>
+                  <c:v>1821.8</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2425.0901237633998</c:v>
+                  <c:v>2169.6</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2623.57648467527</c:v>
+                  <c:v>2518.4</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2793.0334592107401</c:v>
+                  <c:v>2812.8</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2995.8446454886598</c:v>
+                  <c:v>3082</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3219.3071928598301</c:v>
+                  <c:v>3428.4</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3483.25926418163</c:v>
+                  <c:v>3632.2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3729.5473678560102</c:v>
+                  <c:v>3844</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3976.45381178153</c:v>
+                  <c:v>4123.2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>4230.3102074697799</c:v>
+                  <c:v>4357.8</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>4452.2616221953404</c:v>
+                  <c:v>4572</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>4662.5302066803897</c:v>
+                  <c:v>4846.8</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>4941.00938327118</c:v>
+                  <c:v>4978.3999999999996</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>5186.6877483089302</c:v>
+                  <c:v>5224.3999999999996</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>5521.5271970841504</c:v>
+                  <c:v>5358.2</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>5803.00146886727</c:v>
+                  <c:v>5552.8</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>6073.8869094738102</c:v>
+                  <c:v>5867.6</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>6432.6466097277498</c:v>
+                  <c:v>6292.4</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>6673.7045394056204</c:v>
+                  <c:v>6534.8</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>6960.1606113235102</c:v>
+                  <c:v>7024.4</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>7287.30910352708</c:v>
+                  <c:v>7528.4</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>7604.42797940525</c:v>
+                  <c:v>7714.2</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>7946.3862584899298</c:v>
+                  <c:v>8105</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>8236.3625901955802</c:v>
+                  <c:v>8431.2000000000007</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>8671.6042311764795</c:v>
+                  <c:v>8626.6</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>9087.8263784358496</c:v>
+                  <c:v>8860</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>9410.9643125184593</c:v>
+                  <c:v>9373.6</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>9801.4676155287507</c:v>
+                  <c:v>9795.6</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>10272.7477388959</c:v>
+                  <c:v>10313</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>10759.964570595899</c:v>
+                  <c:v>10764</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>11173.179146906799</c:v>
+                  <c:v>11163.8</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>11560.483944040499</c:v>
+                  <c:v>11477.8</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>12049.0766378152</c:v>
+                  <c:v>11748.4</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>12566.404730750401</c:v>
+                  <c:v>12082.6</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>12970.919002737101</c:v>
+                  <c:v>12506.4</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>13370.0966783863</c:v>
+                  <c:v>12993.2</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>13832.361908520799</c:v>
+                  <c:v>13624.6</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>14370.07808711</c:v>
+                  <c:v>14223</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>14853.714582500401</c:v>
+                  <c:v>14705.8</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>15327.651841750399</c:v>
+                  <c:v>15163.2</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>15875.354827115199</c:v>
+                  <c:v>15646.8</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>16451.6510224542</c:v>
+                  <c:v>15958.8</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>16938.040941902698</c:v>
+                  <c:v>16376.6</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>17450.4012014293</c:v>
+                  <c:v>16993.8</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>17950.281803150199</c:v>
+                  <c:v>17671.400000000001</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>18496.7027087319</c:v>
+                  <c:v>18179.400000000001</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>18992.552516151602</c:v>
+                  <c:v>18882</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>19541.816288305999</c:v>
+                  <c:v>19562.8</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>20152.795865251701</c:v>
+                  <c:v>20000.8</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>20730.286289235599</c:v>
+                  <c:v>20548.8</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>21297.559424334198</c:v>
+                  <c:v>21171.200000000001</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>21836.364580298101</c:v>
+                  <c:v>21621.599999999999</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>22441.892949765901</c:v>
+                  <c:v>22146</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>23043.263555353202</c:v>
+                  <c:v>22924.400000000001</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>23584.851527180599</c:v>
+                  <c:v>23421.599999999999</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>24150.902912448299</c:v>
+                  <c:v>24126.799999999999</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>24766.0250477314</c:v>
+                  <c:v>24862.6</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>25382.1759993163</c:v>
+                  <c:v>25517.200000000001</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>25999.9290038209</c:v>
+                  <c:v>25975.599999999999</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>26578.6258627725</c:v>
+                  <c:v>26756.799999999999</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>27219.605347826298</c:v>
+                  <c:v>27316.799999999999</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>27919.032841951601</c:v>
+                  <c:v>27925.8</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>28583.397186880698</c:v>
+                  <c:v>28487.599999999999</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>29266.326385750101</c:v>
+                  <c:v>29337.8</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>29942.362511380099</c:v>
+                  <c:v>30015.8</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>30677.702206708</c:v>
+                  <c:v>30789.4</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>31455.529193879102</c:v>
+                  <c:v>31539</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>32169.392498599798</c:v>
+                  <c:v>32400.2</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>32957.664799665203</c:v>
+                  <c:v>33018.199999999997</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>33692.513746384699</c:v>
+                  <c:v>33791.199999999997</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>34451.800222294201</c:v>
+                  <c:v>34409.599999999999</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>35197.718223711199</c:v>
+                  <c:v>35152.800000000003</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>35885.2808627868</c:v>
+                  <c:v>35920.199999999997</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>36230.597785484199</c:v>
+                  <c:v>36752.800000000003</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>36508.434537851201</c:v>
+                  <c:v>37389.599999999999</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>36803.478954015904</c:v>
+                  <c:v>38274.6</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>36996.358623407003</c:v>
+                  <c:v>38672.25</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>36955.525127257497</c:v>
+                  <c:v>38949.333333333299</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1284,7 +1279,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3B65-4325-BEBC-A6B9998158F3}"/>
+              <c16:uniqueId val="{00000000-7A8B-492F-9276-0F8B7C49D713}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1296,11 +1291,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2030372224"/>
-        <c:axId val="2030373664"/>
+        <c:axId val="1176382863"/>
+        <c:axId val="1176389103"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2030372224"/>
+        <c:axId val="1176382863"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1412,12 +1407,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2030373664"/>
+        <c:crossAx val="1176389103"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2030373664"/>
+        <c:axId val="1176389103"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1529,7 +1524,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2030372224"/>
+        <c:crossAx val="1176382863"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2139,22 +2134,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>243840</xdr:colOff>
+      <xdr:colOff>281940</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
+      <xdr:rowOff>144780</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>548640</xdr:colOff>
+      <xdr:colOff>586740</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
+      <xdr:rowOff>144780</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB233BAF-9F03-81C8-80B4-B5162845B7F1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94C3034D-04F7-E01C-8FD9-3AC04D28B3B3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2491,7 +2486,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49BD3BC5-8364-44F8-9E8D-4E1FB938505A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FDEA1AD-9E04-4C34-9465-2E88FD63F4AC}">
   <dimension ref="A1:B100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2505,7 +2500,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>-99.3333333333333</v>
+        <v>-50.3333333333333</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -2513,7 +2508,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>56.952380952380899</v>
+        <v>56.25</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -2521,7 +2516,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>162.82738095238099</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -2529,7 +2524,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>197.38293650793599</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -2537,7 +2532,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>216.58293650793601</v>
+        <v>68.2</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -2545,7 +2540,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>204.03748196248199</v>
+        <v>98.8</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -2553,7 +2548,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>304.61664698937398</v>
+        <v>152</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -2561,7 +2556,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>363.22248935637299</v>
+        <v>173.8</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -2569,7 +2564,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>447.80386284764501</v>
+        <v>264.60000000000002</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -2577,7 +2572,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>525.56940160580098</v>
+        <v>430.4</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -2585,7 +2580,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>569.11362570560698</v>
+        <v>509.4</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -2593,7 +2588,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>645.57509331861797</v>
+        <v>571.20000000000005</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -2601,7 +2596,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>754.11677025764004</v>
+        <v>791.8</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -2609,7 +2604,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>840.83443215775503</v>
+        <v>1020.2</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -2617,7 +2612,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>940.38266573140197</v>
+        <v>1043.4000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -2625,7 +2620,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>1067.0020533791801</v>
+        <v>1152.2</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -2633,7 +2628,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>1265.9010013494999</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -2641,7 +2636,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>1472.0215384432199</v>
+        <v>1397.6</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -2649,7 +2644,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>1568.7401537328201</v>
+        <v>1379.4</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -2657,7 +2652,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>1727.5497647851</v>
+        <v>1502.2</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -2665,7 +2660,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>1902.11041015362</v>
+        <v>1545.2</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -2673,7 +2668,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>2124.7566244058398</v>
+        <v>1727.4</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -2681,7 +2676,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>2249.83440832005</v>
+        <v>1821.8</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -2689,7 +2684,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>2425.0901237633998</v>
+        <v>2169.6</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -2697,7 +2692,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>2623.57648467527</v>
+        <v>2518.4</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -2705,7 +2700,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>2793.0334592107401</v>
+        <v>2812.8</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
@@ -2713,7 +2708,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>2995.8446454886598</v>
+        <v>3082</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
@@ -2721,7 +2716,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>3219.3071928598301</v>
+        <v>3428.4</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
@@ -2729,7 +2724,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>3483.25926418163</v>
+        <v>3632.2</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
@@ -2737,7 +2732,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>3729.5473678560102</v>
+        <v>3844</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
@@ -2745,7 +2740,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>3976.45381178153</v>
+        <v>4123.2</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
@@ -2753,7 +2748,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>4230.3102074697799</v>
+        <v>4357.8</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
@@ -2761,7 +2756,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>4452.2616221953404</v>
+        <v>4572</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
@@ -2769,7 +2764,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>4662.5302066803897</v>
+        <v>4846.8</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
@@ -2777,7 +2772,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>4941.00938327118</v>
+        <v>4978.3999999999996</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
@@ -2785,7 +2780,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>5186.6877483089302</v>
+        <v>5224.3999999999996</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
@@ -2793,7 +2788,7 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>5521.5271970841504</v>
+        <v>5358.2</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
@@ -2801,7 +2796,7 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>5803.00146886727</v>
+        <v>5552.8</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
@@ -2809,7 +2804,7 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>6073.8869094738102</v>
+        <v>5867.6</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
@@ -2817,7 +2812,7 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>6432.6466097277498</v>
+        <v>6292.4</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
@@ -2825,7 +2820,7 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>6673.7045394056204</v>
+        <v>6534.8</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
@@ -2833,7 +2828,7 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>6960.1606113235102</v>
+        <v>7024.4</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
@@ -2841,7 +2836,7 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>7287.30910352708</v>
+        <v>7528.4</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
@@ -2849,7 +2844,7 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>7604.42797940525</v>
+        <v>7714.2</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
@@ -2857,7 +2852,7 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>7946.3862584899298</v>
+        <v>8105</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
@@ -2865,7 +2860,7 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>8236.3625901955802</v>
+        <v>8431.2000000000007</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
@@ -2873,7 +2868,7 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>8671.6042311764795</v>
+        <v>8626.6</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
@@ -2881,7 +2876,7 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>9087.8263784358496</v>
+        <v>8860</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
@@ -2889,7 +2884,7 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>9410.9643125184593</v>
+        <v>9373.6</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
@@ -2897,7 +2892,7 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>9801.4676155287507</v>
+        <v>9795.6</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
@@ -2905,7 +2900,7 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>10272.7477388959</v>
+        <v>10313</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
@@ -2913,7 +2908,7 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>10759.964570595899</v>
+        <v>10764</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
@@ -2921,7 +2916,7 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>11173.179146906799</v>
+        <v>11163.8</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
@@ -2929,7 +2924,7 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>11560.483944040499</v>
+        <v>11477.8</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
@@ -2937,7 +2932,7 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>12049.0766378152</v>
+        <v>11748.4</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
@@ -2945,7 +2940,7 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>12566.404730750401</v>
+        <v>12082.6</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
@@ -2953,7 +2948,7 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>12970.919002737101</v>
+        <v>12506.4</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
@@ -2961,7 +2956,7 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>13370.0966783863</v>
+        <v>12993.2</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
@@ -2969,7 +2964,7 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>13832.361908520799</v>
+        <v>13624.6</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
@@ -2977,7 +2972,7 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>14370.07808711</v>
+        <v>14223</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
@@ -2985,7 +2980,7 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>14853.714582500401</v>
+        <v>14705.8</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
@@ -2993,7 +2988,7 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>15327.651841750399</v>
+        <v>15163.2</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
@@ -3001,7 +2996,7 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>15875.354827115199</v>
+        <v>15646.8</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
@@ -3009,7 +3004,7 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>16451.6510224542</v>
+        <v>15958.8</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
@@ -3017,7 +3012,7 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>16938.040941902698</v>
+        <v>16376.6</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
@@ -3025,7 +3020,7 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>17450.4012014293</v>
+        <v>16993.8</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
@@ -3033,7 +3028,7 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>17950.281803150199</v>
+        <v>17671.400000000001</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
@@ -3041,7 +3036,7 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>18496.7027087319</v>
+        <v>18179.400000000001</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
@@ -3049,7 +3044,7 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>18992.552516151602</v>
+        <v>18882</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
@@ -3057,7 +3052,7 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>19541.816288305999</v>
+        <v>19562.8</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
@@ -3065,7 +3060,7 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>20152.795865251701</v>
+        <v>20000.8</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
@@ -3073,7 +3068,7 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>20730.286289235599</v>
+        <v>20548.8</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
@@ -3081,7 +3076,7 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>21297.559424334198</v>
+        <v>21171.200000000001</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
@@ -3089,7 +3084,7 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>21836.364580298101</v>
+        <v>21621.599999999999</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
@@ -3097,7 +3092,7 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>22441.892949765901</v>
+        <v>22146</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
@@ -3105,7 +3100,7 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>23043.263555353202</v>
+        <v>22924.400000000001</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
@@ -3113,7 +3108,7 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>23584.851527180599</v>
+        <v>23421.599999999999</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
@@ -3121,7 +3116,7 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>24150.902912448299</v>
+        <v>24126.799999999999</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
@@ -3129,7 +3124,7 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>24766.0250477314</v>
+        <v>24862.6</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
@@ -3137,7 +3132,7 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>25382.1759993163</v>
+        <v>25517.200000000001</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
@@ -3145,7 +3140,7 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>25999.9290038209</v>
+        <v>25975.599999999999</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
@@ -3153,7 +3148,7 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>26578.6258627725</v>
+        <v>26756.799999999999</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
@@ -3161,7 +3156,7 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>27219.605347826298</v>
+        <v>27316.799999999999</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
@@ -3169,7 +3164,7 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>27919.032841951601</v>
+        <v>27925.8</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
@@ -3177,7 +3172,7 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>28583.397186880698</v>
+        <v>28487.599999999999</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
@@ -3185,7 +3180,7 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>29266.326385750101</v>
+        <v>29337.8</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
@@ -3193,7 +3188,7 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>29942.362511380099</v>
+        <v>30015.8</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
@@ -3201,7 +3196,7 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>30677.702206708</v>
+        <v>30789.4</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
@@ -3209,7 +3204,7 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>31455.529193879102</v>
+        <v>31539</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
@@ -3217,7 +3212,7 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>32169.392498599798</v>
+        <v>32400.2</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
@@ -3225,7 +3220,7 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>32957.664799665203</v>
+        <v>33018.199999999997</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
@@ -3233,7 +3228,7 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>33692.513746384699</v>
+        <v>33791.199999999997</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
@@ -3241,7 +3236,7 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>34451.800222294201</v>
+        <v>34409.599999999999</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
@@ -3249,7 +3244,7 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>35197.718223711199</v>
+        <v>35152.800000000003</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
@@ -3257,7 +3252,7 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>35885.2808627868</v>
+        <v>35920.199999999997</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
@@ -3265,7 +3260,7 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>36230.597785484199</v>
+        <v>36752.800000000003</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
@@ -3273,7 +3268,7 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>36508.434537851201</v>
+        <v>37389.599999999999</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
@@ -3281,7 +3276,7 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>36803.478954015904</v>
+        <v>38274.6</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
@@ -3289,7 +3284,7 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>36996.358623407003</v>
+        <v>38672.25</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
@@ -3297,7 +3292,7 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>36955.525127257497</v>
+        <v>38949.333333333299</v>
       </c>
     </row>
   </sheetData>
